--- a/ProcessedData/conf_svm_transcript_4.xlsx
+++ b/ProcessedData/conf_svm_transcript_4.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.2162486690495383</v>
+        <v>4.916159196562259</v>
       </c>
       <c r="C2">
-        <v>-1.855870714683746</v>
+        <v>3.767325467327407</v>
       </c>
       <c r="D2">
-        <v>-1.750162602447303</v>
+        <v>0.5808597247507309</v>
+      </c>
+      <c r="E2">
+        <v>28</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.242479183814536</v>
+        <v>8.180251894925945</v>
       </c>
       <c r="C3">
-        <v>-2.798823326796884</v>
+        <v>4.798922531364246</v>
       </c>
       <c r="D3">
-        <v>-2.471118436159024</v>
+        <v>1.189084542434101</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -448,16 +445,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6745604672146627</v>
+        <v>1.984162168592432</v>
       </c>
       <c r="C4">
-        <v>-0.8664826071826771</v>
+        <v>2.009601861164775</v>
       </c>
       <c r="D4">
-        <v>-0.7051831334943515</v>
+        <v>0.1742950595733728</v>
+      </c>
+      <c r="E4">
+        <v>28</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -465,16 +465,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.704824264486341</v>
+        <v>7.001171081892006</v>
       </c>
       <c r="C5">
-        <v>-2.388249453944066</v>
+        <v>5.611455506722517</v>
       </c>
       <c r="D5">
-        <v>-2.09335468247953</v>
+        <v>1.19004207565817</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -482,16 +485,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.9042149705800717</v>
+        <v>3.257969803337087</v>
       </c>
       <c r="C6">
-        <v>-1.369480689178503</v>
+        <v>3.737592505820887</v>
       </c>
       <c r="D6">
-        <v>-0.844345838819422</v>
+        <v>0.5267004006200319</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.896694241848246</v>
+        <v>4.432106878815142</v>
       </c>
       <c r="C7">
-        <v>-1.504901082966371</v>
+        <v>2.507567982046659</v>
       </c>
       <c r="D7">
-        <v>-0.8936104741697178</v>
+        <v>0.8463135834533601</v>
+      </c>
+      <c r="E7">
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.5909696198501694</v>
+        <v>1.696782448603981</v>
       </c>
       <c r="C8">
-        <v>-0.5948602156132051</v>
+        <v>0.7322598758864375</v>
       </c>
       <c r="D8">
-        <v>-1.195775401354596</v>
+        <v>-0.2870337306897047</v>
+      </c>
+      <c r="E8">
+        <v>28</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -533,16 +545,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.9590223674878334</v>
+        <v>1.763150999034393</v>
       </c>
       <c r="C9">
-        <v>-0.7021886616828463</v>
+        <v>1.327273154218009</v>
       </c>
       <c r="D9">
-        <v>-0.7539132465328842</v>
+        <v>0.02637090653690333</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.275955545802496</v>
+        <v>8.849387228617188</v>
       </c>
       <c r="C10">
-        <v>-3.043241832232643</v>
+        <v>8.088482008912434</v>
       </c>
       <c r="D10">
-        <v>-2.405391765006069</v>
+        <v>1.257678892319496</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-1.516001510690226</v>
+        <v>6.463090387748302</v>
       </c>
       <c r="C11">
-        <v>-2.482617076725357</v>
+        <v>5.531704153635225</v>
       </c>
       <c r="D11">
-        <v>-1.773044995584542</v>
+        <v>1.033222624903894</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03809756780169393</v>
+        <v>5.307498513307715</v>
       </c>
       <c r="C12">
-        <v>-2.118314355199316</v>
+        <v>4.817379843809282</v>
       </c>
       <c r="D12">
-        <v>-1.632250943290936</v>
+        <v>0.8508107502373859</v>
+      </c>
+      <c r="E12">
+        <v>28</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.5428066826565288</v>
+        <v>1.494770016506033</v>
       </c>
       <c r="C13">
-        <v>-0.5532054430514787</v>
+        <v>0.775629898558025</v>
       </c>
       <c r="D13">
-        <v>-1.097377213768844</v>
+        <v>-0.2850394113149283</v>
+      </c>
+      <c r="E13">
+        <v>28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-2.912697880396275</v>
+        <v>6.678924684048288</v>
       </c>
       <c r="C14">
-        <v>-3.27576235607716</v>
+        <v>5.397050833129436</v>
       </c>
       <c r="D14">
-        <v>-1.06222896314663</v>
+        <v>2.534403435400887</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-1.264919639423618</v>
+        <v>0.8942314551881497</v>
       </c>
       <c r="C15">
-        <v>-0.3944893419643522</v>
+        <v>1.17543925921364</v>
       </c>
       <c r="D15">
-        <v>-0.5354338861825935</v>
+        <v>-0.1945840709450914</v>
+      </c>
+      <c r="E15">
+        <v>28</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.27131318629959</v>
+        <v>4.283632829360076</v>
       </c>
       <c r="C16">
-        <v>-1.479861463489329</v>
+        <v>2.416193886623335</v>
       </c>
       <c r="D16">
-        <v>-1.459722498471187</v>
+        <v>0.4435992289326773</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1283949177810945</v>
+        <v>5.761992330988488</v>
       </c>
       <c r="C17">
-        <v>-2.315887604135901</v>
+        <v>5.36784517588854</v>
       </c>
       <c r="D17">
-        <v>-1.677327923871014</v>
+        <v>1.002789256944301</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.789259875810832</v>
+        <v>3.095859243454301</v>
       </c>
       <c r="C18">
-        <v>-1.233489658028067</v>
+        <v>3.202155295831828</v>
       </c>
       <c r="D18">
-        <v>-0.8133607397020731</v>
+        <v>0.5132114113118335</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-3.651003333222514</v>
+        <v>5.393632153064535</v>
       </c>
       <c r="C19">
-        <v>-1.700406219928687</v>
+        <v>5.720939188768901</v>
       </c>
       <c r="D19">
-        <v>-1.364055164781874</v>
+        <v>0.6160024913908081</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,16 +765,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-2.190698744532662</v>
+        <v>1.421326243861468</v>
       </c>
       <c r="C20">
-        <v>-0.9094466837148414</v>
+        <v>-0.390030608011141</v>
       </c>
       <c r="D20">
-        <v>-1.231350446034233</v>
+        <v>-0.4105229078281254</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -737,16 +785,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.1304400833413456</v>
+        <v>2.68147351419284</v>
       </c>
       <c r="C21">
-        <v>-1.161402269206072</v>
+        <v>2.788998606178602</v>
       </c>
       <c r="D21">
-        <v>-1.058350270627615</v>
+        <v>0.2508740009088289</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.4239064707743974</v>
+        <v>1.204368606730332</v>
       </c>
       <c r="C22">
-        <v>-0.5192892101621721</v>
+        <v>0.9999862769210143</v>
       </c>
       <c r="D22">
-        <v>-0.91185008374236</v>
+        <v>-0.2430561458886467</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.3712547693095488</v>
+        <v>3.691535674682576</v>
       </c>
       <c r="C23">
-        <v>-1.369676132014704</v>
+        <v>2.572148492820665</v>
       </c>
       <c r="D23">
-        <v>-1.550341208556375</v>
+        <v>0.2409024040349472</v>
+      </c>
+      <c r="E23">
+        <v>29</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -788,16 +845,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.7510915572506344</v>
+        <v>1.171233215916319</v>
       </c>
       <c r="C24">
-        <v>-0.5254041019854991</v>
+        <v>1.095679168461006</v>
       </c>
       <c r="D24">
-        <v>-0.6288608885306416</v>
+        <v>-0.09504333072385368</v>
+      </c>
+      <c r="E24">
+        <v>29</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.3953036088716664</v>
+        <v>0.4594733792738585</v>
       </c>
       <c r="C25">
-        <v>-0.2877997283362809</v>
+        <v>0.673877323204746</v>
       </c>
       <c r="D25">
-        <v>-0.6812459731357973</v>
+        <v>-0.3530513871692807</v>
+      </c>
+      <c r="E25">
+        <v>29</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.6362259550666822</v>
+        <v>-0.06621283464624683</v>
       </c>
       <c r="C26">
-        <v>-0.1064698455136877</v>
+        <v>0.3261200992745</v>
       </c>
       <c r="D26">
-        <v>-0.3587318179554266</v>
+        <v>-0.3643317530916723</v>
+      </c>
+      <c r="E26">
+        <v>29</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.1500001586322554</v>
+        <v>2.138590718834314</v>
       </c>
       <c r="C27">
-        <v>-0.9715675599419075</v>
+        <v>2.419519629790746</v>
       </c>
       <c r="D27">
-        <v>-0.9261443476068039</v>
+        <v>0.1388844402534186</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.9746518681705945</v>
+        <v>4.573332437992162</v>
       </c>
       <c r="C28">
-        <v>-1.694616235272397</v>
+        <v>4.023460230379747</v>
       </c>
       <c r="D28">
-        <v>-1.345637855126002</v>
+        <v>0.6315973669950355</v>
+      </c>
+      <c r="E28">
+        <v>29</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.412601996975536</v>
+        <v>5.094037178307654</v>
       </c>
       <c r="C29">
-        <v>-2.083584654082001</v>
+        <v>3.628806897912023</v>
       </c>
       <c r="D29">
-        <v>-1.682045318847597</v>
+        <v>0.6402782247796551</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-0.2689003705143868</v>
+        <v>2.428992128610016</v>
       </c>
       <c r="C30">
-        <v>-1.005483792831214</v>
+        <v>2.195163251427757</v>
       </c>
       <c r="D30">
-        <v>-1.111671477633288</v>
+        <v>0.096901174827137</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -907,16 +985,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.198163095825896</v>
+        <v>2.340603150932261</v>
       </c>
       <c r="C31">
-        <v>-1.013222332503634</v>
+        <v>2.376149607119158</v>
       </c>
       <c r="D31">
-        <v>-1.024542535192556</v>
+        <v>0.1368901208786423</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -924,16 +1005,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.2794176591934754</v>
+        <v>0.5983313104364899</v>
       </c>
       <c r="C32">
-        <v>-0.394324892476993</v>
+        <v>1.130096344935777</v>
       </c>
       <c r="D32">
-        <v>-0.616655520985104</v>
+        <v>-0.2370731877643176</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.113652934835669</v>
+        <v>7.781823626755815</v>
       </c>
       <c r="C33">
-        <v>-2.720414587953699</v>
+        <v>5.56117086483319</v>
       </c>
       <c r="D33">
-        <v>-2.277572631409886</v>
+        <v>1.164183692245516</v>
+      </c>
+      <c r="E33">
+        <v>29</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.4630266213562169</v>
+        <v>0.1186030160132797</v>
       </c>
       <c r="C34">
-        <v>-0.1396197916338424</v>
+        <v>0.2610283241453028</v>
       </c>
       <c r="D34">
-        <v>-0.6474382377007385</v>
+        <v>-0.4670352671994674</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -975,16 +1065,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.3080205210962063</v>
+        <v>1.343226537892963</v>
       </c>
       <c r="C35">
-        <v>-0.6258143743028842</v>
+        <v>1.456205298652045</v>
       </c>
       <c r="D35">
-        <v>-0.8472596315916667</v>
+        <v>-0.1270779464836836</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-2.483117289881492</v>
+        <v>5.994502988160279</v>
       </c>
       <c r="C36">
-        <v>-3.109979972010865</v>
+        <v>2.350112221155232</v>
       </c>
       <c r="D36">
-        <v>-2.500757411058056</v>
+        <v>0.5821391816638278</v>
+      </c>
+      <c r="E36">
+        <v>29</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1009,16 +1105,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-1.605473861189778</v>
+        <v>0.9721306886259958</v>
       </c>
       <c r="C37">
-        <v>-0.387556618373853</v>
+        <v>0.6061834320633048</v>
       </c>
       <c r="D37">
-        <v>-0.4021690177591511</v>
+        <v>-0.05166798377285209</v>
+      </c>
+      <c r="E37">
+        <v>29</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1026,16 +1125,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.1436634393300987</v>
+        <v>4.030330282530601</v>
       </c>
       <c r="C38">
-        <v>-1.707247995716524</v>
+        <v>4.162035530575867</v>
       </c>
       <c r="D38">
-        <v>-1.080093604148288</v>
+        <v>0.7282691416993138</v>
+      </c>
+      <c r="E38">
+        <v>29</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1043,16 +1145,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-0.2177231711168058</v>
+        <v>1.797720355573735</v>
       </c>
       <c r="C39">
-        <v>-0.8233876232394689</v>
+        <v>2.006670630731302</v>
       </c>
       <c r="D39">
-        <v>-0.8923366121717451</v>
+        <v>0.02490056022323195</v>
+      </c>
+      <c r="E39">
+        <v>29</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.080383074486896</v>
+        <v>1.032906022354377</v>
       </c>
       <c r="C40">
-        <v>-0.522134869675465</v>
+        <v>1.965903192258075</v>
       </c>
       <c r="D40">
-        <v>-0.3509055664997669</v>
+        <v>0.02248630211000546</v>
+      </c>
+      <c r="E40">
+        <v>29</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.19507492643727</v>
+        <v>0.7198336066763514</v>
       </c>
       <c r="C41">
-        <v>-0.3112220987533909</v>
+        <v>0.4689520752245449</v>
       </c>
       <c r="D41">
-        <v>-0.4833087621169796</v>
+        <v>-0.1894495395036169</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,16 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-0.4136815568608869</v>
+        <v>1.854788723533564</v>
       </c>
       <c r="C42">
-        <v>-0.8851287345527357</v>
+        <v>2.305835373204352</v>
       </c>
       <c r="D42">
-        <v>-0.6240332901736163</v>
+        <v>0.2064066639845883</v>
+      </c>
+      <c r="E42">
+        <v>29</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1111,16 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.6765146023655306</v>
+        <v>5.079963386319075</v>
       </c>
       <c r="C43">
-        <v>-2.0249450236726</v>
+        <v>5.211153816231954</v>
       </c>
       <c r="D43">
-        <v>-1.252539430041841</v>
+        <v>0.9362787465596328</v>
+      </c>
+      <c r="E43">
+        <v>29</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1128,16 +1245,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.901057542515188</v>
+        <v>1.830161339152029</v>
       </c>
       <c r="C44">
-        <v>-0.4928113273731569</v>
+        <v>-0.02984197419946338</v>
       </c>
       <c r="D44">
-        <v>-0.9606722611271747</v>
+        <v>-0.1801497827217898</v>
+      </c>
+      <c r="E44">
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-4.176127722195653</v>
+        <v>4.955104532844014</v>
       </c>
       <c r="C45">
-        <v>-1.365004030806343</v>
+        <v>0.9175958779160021</v>
       </c>
       <c r="D45">
-        <v>-1.289585220408374</v>
+        <v>0.6457915993104809</v>
+      </c>
+      <c r="E45">
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.4946437454628881</v>
+        <v>1.292757584408086</v>
       </c>
       <c r="C46">
-        <v>-0.5115506704897523</v>
+        <v>0.8189999212296125</v>
       </c>
       <c r="D46">
-        <v>-0.9989790261830924</v>
+        <v>-0.2830450919401519</v>
+      </c>
+      <c r="E46">
+        <v>29</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.4750836701719784</v>
+        <v>1.835640379766613</v>
       </c>
       <c r="C47">
-        <v>-0.7013853797539172</v>
+        <v>1.188478897617468</v>
       </c>
       <c r="D47">
-        <v>-1.131184949203903</v>
+        <v>-0.1710555312847416</v>
+      </c>
+      <c r="E47">
+        <v>29</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.2914747080092369</v>
+        <v>2.315368674189823</v>
       </c>
       <c r="C48">
-        <v>-0.9560904805970679</v>
+        <v>2.057546918407942</v>
       </c>
       <c r="D48">
-        <v>-1.100402232488269</v>
+        <v>0.05890654815040819</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1213,16 +1345,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.5819268332383483</v>
+        <v>0.4090044257889814</v>
       </c>
       <c r="C49">
-        <v>-0.173536024523149</v>
+        <v>0.03667194578231348</v>
       </c>
       <c r="D49">
-        <v>-0.8329653677272228</v>
+        <v>-0.509018532625749</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.4464808082692475</v>
+        <v>1.090745152310139</v>
       </c>
       <c r="C50">
-        <v>-0.469895897928026</v>
+        <v>0.8623699439011999</v>
       </c>
       <c r="D50">
-        <v>-0.9005808385973404</v>
+        <v>-0.2810507725653756</v>
+      </c>
+      <c r="E50">
+        <v>30</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1247,16 +1385,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1.212871588912913</v>
+        <v>1.927542006406262</v>
       </c>
       <c r="C51">
-        <v>-0.7111619744324915</v>
+        <v>1.669074610789873</v>
       </c>
       <c r="D51">
-        <v>-0.8701314631370387</v>
+        <v>-0.05133854405160637</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1264,16 +1405,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.306372122800984</v>
+        <v>0.4614972971819393</v>
       </c>
       <c r="C52">
-        <v>-0.1568618491924809</v>
+        <v>-0.1084194000479892</v>
       </c>
       <c r="D52">
-        <v>-0.5374841261397958</v>
+        <v>-0.3445477001053505</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1.613062551137438</v>
+        <v>1.538884629471873</v>
       </c>
       <c r="C53">
-        <v>-0.4931538442460685</v>
+        <v>0.9327538890072967</v>
       </c>
       <c r="D53">
-        <v>-0.8133286733169578</v>
+        <v>-0.1901115595267028</v>
+      </c>
+      <c r="E53">
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,16 +1445,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.5563382335395577</v>
+        <v>0.09336853927084116</v>
       </c>
       <c r="C54">
-        <v>-0.08248793972727644</v>
+        <v>-0.05757436456591347</v>
       </c>
       <c r="D54">
-        <v>-0.7232979349964512</v>
+        <v>-0.5450188399277015</v>
+      </c>
+      <c r="E54">
+        <v>30</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.3019919966883255</v>
+        <v>0.484707856016297</v>
       </c>
       <c r="C55">
-        <v>-0.3449315802428469</v>
+        <v>0.9924800119159624</v>
       </c>
       <c r="D55">
-        <v>-0.6053862758400844</v>
+        <v>-0.2750678144410466</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-2.169108224890229</v>
+        <v>3.019778357943977</v>
       </c>
       <c r="C56">
-        <v>-1.297386530155479</v>
+        <v>1.129787060376412</v>
       </c>
       <c r="D56">
-        <v>-1.375656707603223</v>
+        <v>0.04075791186370969</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,16 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-1.125789117911877</v>
+        <v>0.2309421110150017</v>
       </c>
       <c r="C57">
-        <v>-0.1228034323487528</v>
+        <v>0.01521203508036306</v>
       </c>
       <c r="D57">
-        <v>-0.4432499540126134</v>
+        <v>-0.3480393865157759</v>
+      </c>
+      <c r="E57">
+        <v>30</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.6075154329371388</v>
+        <v>0.7246403123071216</v>
       </c>
       <c r="C58">
-        <v>-0.2645841093190215</v>
+        <v>0.1309182561305404</v>
       </c>
       <c r="D58">
-        <v>-0.9426328004579945</v>
+        <v>-0.4730182253237964</v>
+      </c>
+      <c r="E58">
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,13 +1545,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C59">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D59">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.4148636841625762</v>
+        <v>-0.08340941608466762</v>
       </c>
       <c r="C60">
-        <v>-0.09796501907211602</v>
+        <v>0.3043983468168903</v>
       </c>
       <c r="D60">
-        <v>-0.5490400501149865</v>
+        <v>-0.465040947824691</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.3697150091728759</v>
+        <v>0.1438374927557182</v>
       </c>
       <c r="C61">
-        <v>-0.1967516435404084</v>
+        <v>0.5796310128565191</v>
       </c>
       <c r="D61">
-        <v>-0.5715785404050256</v>
+        <v>-0.3890516944712332</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1.775120153800631</v>
+        <v>0.9180024076963765</v>
       </c>
       <c r="C62">
-        <v>-0.2742668063194389</v>
+        <v>-0.02073202068518321</v>
       </c>
       <c r="D62">
-        <v>-0.5544222604862907</v>
+        <v>-0.208338463304346</v>
+      </c>
+      <c r="E62">
+        <v>30</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,16 +1625,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.4886152210550073</v>
+        <v>0.4342389025314199</v>
       </c>
       <c r="C63">
-        <v>-0.230667876429715</v>
+        <v>0.3552746344935298</v>
       </c>
       <c r="D63">
-        <v>-0.75710567043151</v>
+        <v>-0.4310349598975148</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1468,16 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.2207374333207461</v>
+        <v>2.226979696512068</v>
       </c>
       <c r="C64">
-        <v>-0.9638290202694877</v>
+        <v>2.238533274099344</v>
       </c>
       <c r="D64">
-        <v>-1.013273290047536</v>
+        <v>0.09889549420191335</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.327580596387116</v>
+        <v>0.8003437425344372</v>
       </c>
       <c r="C65">
-        <v>-0.4359796650387194</v>
+        <v>1.086726322264189</v>
       </c>
       <c r="D65">
-        <v>-0.715053708570856</v>
+        <v>-0.239067507139094</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,13 +1685,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.3697150091728759</v>
+        <v>0.1438374927557182</v>
       </c>
       <c r="C66">
-        <v>-0.1967516435404084</v>
+        <v>0.5796310128565191</v>
       </c>
       <c r="D66">
-        <v>-0.5715785404050256</v>
+        <v>-0.3890516944712332</v>
+      </c>
+      <c r="E66">
+        <v>30</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-1.466548092340564</v>
+        <v>0.7010276831694925</v>
       </c>
       <c r="C67">
-        <v>-0.4937170713408464</v>
+        <v>0.7923944558426869</v>
       </c>
       <c r="D67">
-        <v>-0.5701717585823418</v>
+        <v>-0.2492440785097271</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -1536,16 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.3501549338819662</v>
+        <v>0.6867202881142443</v>
       </c>
       <c r="C68">
-        <v>-0.3865863528045733</v>
+        <v>0.9491099892443748</v>
       </c>
       <c r="D68">
-        <v>-0.7037844634258364</v>
+        <v>-0.2770621338158229</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.485600958851067</v>
+        <v>0.004979561593086768</v>
       </c>
       <c r="C69">
-        <v>-0.09022647939969622</v>
+        <v>0.1234119911254884</v>
       </c>
       <c r="D69">
-        <v>-0.6361689925557189</v>
+        <v>-0.5050298938761962</v>
+      </c>
+      <c r="E69">
+        <v>30</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.8509475380062129</v>
+        <v>0.5271686794497238</v>
       </c>
       <c r="C70">
-        <v>-0.2828648485075478</v>
+        <v>0.5535981151619257</v>
       </c>
       <c r="D70">
-        <v>-0.4835706367033835</v>
+        <v>-0.2426361822009048</v>
+      </c>
+      <c r="E70">
+        <v>30</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C71">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D71">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C72">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D72">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-0.5397924204525884</v>
+        <v>1.0655106755677</v>
       </c>
       <c r="C73">
-        <v>-0.4127640460214601</v>
+        <v>0.5437672551899836</v>
       </c>
       <c r="D73">
-        <v>-0.9764405358930532</v>
+        <v>-0.3590343452936098</v>
+      </c>
+      <c r="E73">
+        <v>30</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,16 +1845,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-1.846596286644184</v>
+        <v>2.428422077532324</v>
       </c>
       <c r="C74">
-        <v>-0.8436657453172897</v>
+        <v>1.28503882507808</v>
       </c>
       <c r="D74">
-        <v>-0.7682405744958334</v>
+        <v>0.2188614559653098</v>
+      </c>
+      <c r="E74">
+        <v>30</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1655,16 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.5593524957434981</v>
+        <v>0.5226278802091743</v>
       </c>
       <c r="C75">
-        <v>-0.2229293367572951</v>
+        <v>0.1742882788021279</v>
       </c>
       <c r="D75">
-        <v>-0.8442346128722424</v>
+        <v>-0.4710239059490201</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.3953036088716664</v>
+        <v>0.4594733792738585</v>
       </c>
       <c r="C76">
-        <v>-0.2877997283362809</v>
+        <v>0.673877323204746</v>
       </c>
       <c r="D76">
-        <v>-0.6812459731357973</v>
+        <v>-0.3530513871692807</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -1689,13 +1905,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.2297802199325673</v>
+        <v>3.514757719327068</v>
       </c>
       <c r="C77">
-        <v>-1.385153211359544</v>
+        <v>2.934121204203468</v>
       </c>
       <c r="D77">
-        <v>-1.37608332367491</v>
+        <v>0.3208802961379577</v>
+      </c>
+      <c r="E77">
+        <v>30</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -1706,16 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-1.118986650139852</v>
+        <v>1.369021201565586</v>
       </c>
       <c r="C78">
-        <v>-0.5523979037691372</v>
+        <v>0.9966272339801036</v>
       </c>
       <c r="D78">
-        <v>-0.6278516265542383</v>
+        <v>-0.0408720203215297</v>
+      </c>
+      <c r="E78">
+        <v>30</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.8068075154410574</v>
+        <v>0.5176544280933936</v>
       </c>
       <c r="C79">
-        <v>-0.2853969670802139</v>
+        <v>0.5803519193141805</v>
       </c>
       <c r="D79">
-        <v>-0.48495864185624</v>
+        <v>-0.2444648507959721</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,16 +1965,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-1.255441327533497</v>
+        <v>0.4505193148477123</v>
       </c>
       <c r="C80">
-        <v>-0.1597835244686341</v>
+        <v>-0.07754962602615673</v>
       </c>
       <c r="D80">
-        <v>-0.5390856705469379</v>
+        <v>-0.3466577023304279</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C81">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D81">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E81">
+        <v>30</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C82">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D82">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E82">
+        <v>30</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.3245663341831757</v>
+        <v>0.371084401596104</v>
       </c>
       <c r="C83">
-        <v>-0.2955382680087007</v>
+        <v>0.8548636788961479</v>
       </c>
       <c r="D83">
-        <v>-0.5941170306950648</v>
+        <v>-0.3130624411177754</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.3697150091728759</v>
+        <v>0.1438374927557182</v>
       </c>
       <c r="C84">
-        <v>-0.1967516435404084</v>
+        <v>0.5796310128565191</v>
       </c>
       <c r="D84">
-        <v>-0.5715785404050256</v>
+        <v>-0.3890516944712332</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -1825,13 +2065,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.4404522838613667</v>
+        <v>0.2322264704334726</v>
       </c>
       <c r="C85">
-        <v>-0.1890131038679886</v>
+        <v>0.3986446571651172</v>
       </c>
       <c r="D85">
-        <v>-0.6587074828457581</v>
+        <v>-0.4290406405227385</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -1842,16 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-1.022772459865533</v>
+        <v>2.634111394223183</v>
       </c>
       <c r="C86">
-        <v>-0.9797602237632436</v>
+        <v>1.756012697062682</v>
       </c>
       <c r="D86">
-        <v>-0.9939715186230388</v>
+        <v>0.1767521103493543</v>
+      </c>
+      <c r="E86">
+        <v>30</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C87">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D87">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E87">
+        <v>30</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -1876,16 +2125,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-1.033093338936162</v>
+        <v>1.58748572453859</v>
       </c>
       <c r="C88">
-        <v>-0.6535218684583523</v>
+        <v>1.296555719237199</v>
       </c>
       <c r="D88">
-        <v>-0.6516713523699911</v>
+        <v>0.03342923125186625</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1893,16 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.327580596387116</v>
+        <v>0.8003437425344372</v>
       </c>
       <c r="C89">
-        <v>-0.4359796650387194</v>
+        <v>1.086726322264189</v>
       </c>
       <c r="D89">
-        <v>-0.715053708570856</v>
+        <v>-0.239067507139094</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1910,16 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.2372832464077155</v>
+        <v>1.254837560215209</v>
       </c>
       <c r="C90">
-        <v>-0.633552913975304</v>
+        <v>1.637191654343447</v>
       </c>
       <c r="D90">
-        <v>-0.7601306891509344</v>
+        <v>-0.08708900043217838</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1927,16 +2185,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-3.326523077501847</v>
+        <v>6.907151407177584</v>
       </c>
       <c r="C91">
-        <v>-1.676447120466073</v>
+        <v>5.864821469269787</v>
       </c>
       <c r="D91">
-        <v>-3.902101973987794</v>
+        <v>-1.161855771826721</v>
+      </c>
+      <c r="E91">
+        <v>30</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1944,16 +2205,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-1.637530880723181</v>
+        <v>0.9271130432552904</v>
       </c>
       <c r="C92">
-        <v>-0.5216820843127382</v>
+        <v>0.6795190663922622</v>
       </c>
       <c r="D92">
-        <v>-0.6597551914795073</v>
+        <v>-0.2452326982859493</v>
+      </c>
+      <c r="E92">
+        <v>30</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C93">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D93">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C94">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D94">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C95">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D95">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -2012,16 +2285,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.9433004922866433</v>
+        <v>2.143024302094988</v>
       </c>
       <c r="C96">
-        <v>-0.7919258924138362</v>
+        <v>1.308446611722867</v>
       </c>
       <c r="D96">
-        <v>-0.9542330194001009</v>
+        <v>0.01774026289217989</v>
+      </c>
+      <c r="E96">
+        <v>31</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.2072058824377171</v>
+        <v>3.628381173747261</v>
       </c>
       <c r="C97">
-        <v>-1.43454652359369</v>
+        <v>3.071737537223282</v>
       </c>
       <c r="D97">
-        <v>-1.387352568819929</v>
+        <v>0.3588749228146866</v>
+      </c>
+      <c r="E97">
+        <v>31</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.3652262449016681</v>
+        <v>2.83301699280591</v>
       </c>
       <c r="C98">
-        <v>-1.088793337954667</v>
+        <v>2.108423206084582</v>
       </c>
       <c r="D98">
-        <v>-1.308467852804792</v>
+        <v>0.09291253607758432</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -2063,16 +2345,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-4.082777810560372</v>
+        <v>2.436467248866986</v>
       </c>
       <c r="C99">
-        <v>-0.5229925780787824</v>
+        <v>-0.5660729857877268</v>
       </c>
       <c r="D99">
-        <v>-0.6556851895614997</v>
+        <v>0.1557843763416651</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-2.348580941801859</v>
+        <v>0.5008014414943167</v>
       </c>
       <c r="C100">
-        <v>-0.2002483792887077</v>
+        <v>1.436303832301619</v>
       </c>
       <c r="D100">
-        <v>-0.8571096672104217</v>
+        <v>-0.7888189692084316</v>
+      </c>
+      <c r="E100">
+        <v>31</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.2719146327183272</v>
+        <v>2.858251469548349</v>
       </c>
       <c r="C101">
-        <v>-1.145925189861233</v>
+        <v>2.427025894795798</v>
       </c>
       <c r="D101">
-        <v>-1.23260815550908</v>
+        <v>0.1708961088058184</v>
+      </c>
+      <c r="E101">
+        <v>31</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C102">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D102">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E102">
+        <v>31</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C103">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D103">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E103">
+        <v>31</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.4148636841625762</v>
+        <v>-0.08340941608466762</v>
       </c>
       <c r="C104">
-        <v>-0.09796501907211602</v>
+        <v>0.3043983468168903</v>
       </c>
       <c r="D104">
-        <v>-0.5490400501149865</v>
+        <v>-0.465040947824691</v>
+      </c>
+      <c r="E104">
+        <v>31</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.2568433216986252</v>
+        <v>0.7119547648566827</v>
       </c>
       <c r="C105">
-        <v>-0.4437182047111392</v>
+        <v>1.267712677955591</v>
       </c>
       <c r="D105">
-        <v>-0.6279247661301236</v>
+        <v>-0.1990785610875887</v>
+      </c>
+      <c r="E105">
+        <v>31</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.7334987922871801</v>
+        <v>-0.1637352483095734</v>
       </c>
       <c r="C106">
-        <v>-0.05279140954118348</v>
+        <v>0.1432280976893311</v>
       </c>
       <c r="D106">
-        <v>-0.3451136410132652</v>
+        <v>-0.3992317098382874</v>
+      </c>
+      <c r="E106">
+        <v>31</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.3245663341831757</v>
+        <v>0.371084401596104</v>
       </c>
       <c r="C107">
-        <v>-0.2955382680087007</v>
+        <v>0.8548636788961479</v>
       </c>
       <c r="D107">
-        <v>-0.5941170306950648</v>
+        <v>-0.3130624411177754</v>
+      </c>
+      <c r="E107">
+        <v>31</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C108">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D108">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E108">
+        <v>31</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C109">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D109">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E109">
+        <v>31</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,16 +2565,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-1.830665458529517</v>
+        <v>0.3512617756380314</v>
       </c>
       <c r="C110">
-        <v>-0.6867958702019032</v>
+        <v>-0.3856773324128509</v>
       </c>
       <c r="D110">
-        <v>-0.8446843896712599</v>
+        <v>-0.4915598864382894</v>
+      </c>
+      <c r="E110">
+        <v>31</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C111">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D111">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E111">
+        <v>31</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -2284,16 +2605,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-1.369791953028448</v>
+        <v>0.296185376641199</v>
       </c>
       <c r="C112">
-        <v>-0.3135185606229402</v>
+        <v>0.8871491222838711</v>
       </c>
       <c r="D112">
-        <v>-0.2528019965463184</v>
+        <v>-0.06834292858231161</v>
+      </c>
+      <c r="E112">
+        <v>31</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C113">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D113">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E113">
+        <v>31</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -2318,16 +2645,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.5111895585498575</v>
+        <v>0.320615448111227</v>
       </c>
       <c r="C114">
-        <v>-0.1812745641955688</v>
+        <v>0.2176583014737153</v>
       </c>
       <c r="D114">
-        <v>-0.7458364252864904</v>
+        <v>-0.4690295865742438</v>
+      </c>
+      <c r="E114">
+        <v>31</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2335,16 +2665,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.364844243995559</v>
+        <v>0.756426881123775</v>
       </c>
       <c r="C115">
-        <v>-0.3014831811662134</v>
+        <v>0.3660528284851028</v>
       </c>
       <c r="D115">
-        <v>-0.4779702807598389</v>
+        <v>-0.1824161987533582</v>
+      </c>
+      <c r="E115">
+        <v>31</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2352,16 +2685,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.5253598773718271</v>
+        <v>1.167924938589767</v>
       </c>
       <c r="C116">
-        <v>-0.5901323096100635</v>
+        <v>1.494543269628987</v>
       </c>
       <c r="D116">
-        <v>-0.5571652066934984</v>
+        <v>-0.02254576378082129</v>
+      </c>
+      <c r="E116">
+        <v>31</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2369,16 +2705,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-1.158784323520625</v>
+        <v>1.879350865292189</v>
       </c>
       <c r="C117">
-        <v>-0.6870485446441718</v>
+        <v>1.068083371004632</v>
       </c>
       <c r="D117">
-        <v>-0.8369849431421899</v>
+        <v>-0.008272700544405098</v>
+      </c>
+      <c r="E117">
+        <v>32</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.378757795784697</v>
+        <v>1.431615515570718</v>
       </c>
       <c r="C118">
-        <v>-0.6180758346304644</v>
+        <v>1.275218942960643</v>
       </c>
       <c r="D118">
-        <v>-0.9343885740323992</v>
+        <v>-0.1670668925351889</v>
+      </c>
+      <c r="E118">
+        <v>32</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C119">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D119">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E119">
+        <v>32</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.4239064707743974</v>
+        <v>1.204368606730332</v>
       </c>
       <c r="C120">
-        <v>-0.5192892101621721</v>
+        <v>0.9999862769210143</v>
       </c>
       <c r="D120">
-        <v>-0.91185008374236</v>
+        <v>-0.2430561458886467</v>
+      </c>
+      <c r="E120">
+        <v>32</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -2437,16 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.2854461836013562</v>
+        <v>1.456849992313156</v>
       </c>
       <c r="C121">
-        <v>-0.6752076865370304</v>
+        <v>1.593821631671859</v>
       </c>
       <c r="D121">
-        <v>-0.8585288767366863</v>
+        <v>-0.08908331980695472</v>
+      </c>
+      <c r="E121">
+        <v>32</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2454,16 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-1.136714135120437</v>
+        <v>1.65516839964004</v>
       </c>
       <c r="C122">
-        <v>-0.6993565759637924</v>
+        <v>1.495795281730662</v>
       </c>
       <c r="D122">
-        <v>-0.5696190166999954</v>
+        <v>0.1195714792504007</v>
+      </c>
+      <c r="E122">
+        <v>32</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-2.819459378866294</v>
+        <v>0.40437667474762</v>
       </c>
       <c r="C123">
-        <v>0.01877263465741314</v>
+        <v>-0.9971642137947255</v>
       </c>
       <c r="D123">
-        <v>-0.2900789477026001</v>
+        <v>-0.2738829910433445</v>
+      </c>
+      <c r="E123">
+        <v>32</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.3245663341831757</v>
+        <v>0.371084401596104</v>
       </c>
       <c r="C124">
-        <v>-0.2955382680087007</v>
+        <v>0.8548636788961479</v>
       </c>
       <c r="D124">
-        <v>-0.5941170306950648</v>
+        <v>-0.3130624411177754</v>
+      </c>
+      <c r="E124">
+        <v>32</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.1138942702543763</v>
+        <v>3.653615650489699</v>
       </c>
       <c r="C125">
-        <v>-1.491678375500256</v>
+        <v>3.390340225934499</v>
       </c>
       <c r="D125">
-        <v>-1.311492871524217</v>
+        <v>0.4368584955429208</v>
+      </c>
+      <c r="E125">
+        <v>32</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -2522,16 +2885,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.1469858964283149</v>
+        <v>1.709331377895981</v>
       </c>
       <c r="C126">
-        <v>-0.8311261629118887</v>
+        <v>2.187656986422704</v>
       </c>
       <c r="D126">
-        <v>-0.8052076697310128</v>
+        <v>0.06488950627473722</v>
+      </c>
+      <c r="E126">
+        <v>32</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2539,16 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.5142038207537979</v>
+        <v>0.7498747890495602</v>
       </c>
       <c r="C127">
-        <v>-0.3217159612255875</v>
+        <v>0.4495209448417567</v>
       </c>
       <c r="D127">
-        <v>-0.8667731031622816</v>
+        <v>-0.3950346525955623</v>
+      </c>
+      <c r="E127">
+        <v>32</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.3727292713768163</v>
+        <v>0.5730968336940514</v>
       </c>
       <c r="C128">
-        <v>-0.3371930405704271</v>
+        <v>0.8114936562245604</v>
       </c>
       <c r="D128">
-        <v>-0.6925152182808169</v>
+        <v>-0.3150567604925518</v>
+      </c>
+      <c r="E128">
+        <v>32</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.3050062588922659</v>
+        <v>0.9139671969546302</v>
       </c>
       <c r="C129">
-        <v>-0.4853729772728656</v>
+        <v>1.224342655284004</v>
       </c>
       <c r="D129">
-        <v>-0.7263229537158756</v>
+        <v>-0.2010728804623651</v>
+      </c>
+      <c r="E129">
+        <v>32</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.1380083678858993</v>
+        <v>7.087690377996364</v>
       </c>
       <c r="C130">
-        <v>-2.615209551740405</v>
+        <v>5.245241372878829</v>
       </c>
       <c r="D130">
-        <v>-2.278986294530546</v>
+        <v>1.028817967372373</v>
+      </c>
+      <c r="E130">
+        <v>32</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -2607,16 +2985,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.2372832464077155</v>
+        <v>1.254837560215209</v>
       </c>
       <c r="C131">
-        <v>-0.633552913975304</v>
+        <v>1.637191654343447</v>
       </c>
       <c r="D131">
-        <v>-0.7601306891509344</v>
+        <v>-0.08708900043217838</v>
+      </c>
+      <c r="E131">
+        <v>32</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.3757435335807567</v>
+        <v>1.002356174632384</v>
       </c>
       <c r="C132">
-        <v>-0.4776344376004458</v>
+        <v>1.043356299592602</v>
       </c>
       <c r="D132">
-        <v>-0.813451896156608</v>
+        <v>-0.2410618265138703</v>
+      </c>
+      <c r="E132">
+        <v>32</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,16 +3025,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.2402975086116559</v>
+        <v>1.684096901153542</v>
       </c>
       <c r="C133">
-        <v>-0.7739943110053228</v>
+        <v>1.869054297711488</v>
       </c>
       <c r="D133">
-        <v>-0.8810673670267255</v>
+        <v>-0.01309406645349698</v>
+      </c>
+      <c r="E133">
+        <v>32</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.1229370568661974</v>
+        <v>4.941393673304698</v>
       </c>
       <c r="C134">
-        <v>-1.913002566590312</v>
+        <v>4.085928156038623</v>
       </c>
       <c r="D134">
-        <v>-1.67430290515159</v>
+        <v>0.6588432974789652</v>
+      </c>
+      <c r="E134">
+        <v>32</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -2675,16 +3065,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.3305948585910564</v>
+        <v>1.22960308347277</v>
       </c>
       <c r="C135">
-        <v>-0.5764210620687381</v>
+        <v>1.318588965632231</v>
       </c>
       <c r="D135">
-        <v>-0.8359903864466471</v>
+        <v>-0.1650725731604126</v>
+      </c>
+      <c r="E135">
+        <v>32</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C136">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D136">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E136">
+        <v>32</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -2709,16 +3105,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.262871846106506</v>
+        <v>1.570473446733349</v>
       </c>
       <c r="C137">
-        <v>-0.7246009987711766</v>
+        <v>1.731437964691674</v>
       </c>
       <c r="D137">
-        <v>-0.8697981218817059</v>
+        <v>-0.05108869313022585</v>
+      </c>
+      <c r="E137">
+        <v>32</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C138">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D138">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E138">
+        <v>32</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C139">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D139">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E139">
+        <v>32</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C140">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D140">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E140">
+        <v>32</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C141">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D141">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E141">
+        <v>32</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C142">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D142">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E142">
+        <v>32</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C143">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D143">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E143">
+        <v>32</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C144">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D144">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E144">
+        <v>32</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C145">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D145">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E145">
+        <v>32</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C146">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D146">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E146">
+        <v>32</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C147">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D147">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E147">
+        <v>32</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C148">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D148">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E148">
+        <v>32</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C149">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D149">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E149">
+        <v>32</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C150">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D150">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E150">
+        <v>32</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C151">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D151">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E151">
+        <v>32</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C152">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D152">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E152">
+        <v>32</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.4600123591522765</v>
+        <v>-0.3106563249250535</v>
       </c>
       <c r="C153">
-        <v>0.0008216053961763239</v>
+        <v>0.02916568077726145</v>
       </c>
       <c r="D153">
-        <v>-0.5265015598249473</v>
+        <v>-0.5410302011781488</v>
+      </c>
+      <c r="E153">
+        <v>32</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -2998,16 +3445,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.4886152210550073</v>
+        <v>0.4342389025314199</v>
       </c>
       <c r="C154">
-        <v>-0.230667876429715</v>
+        <v>0.3552746344935298</v>
       </c>
       <c r="D154">
-        <v>-0.75710567043151</v>
+        <v>-0.4310349598975148</v>
+      </c>
+      <c r="E154">
+        <v>33</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-1.775120153800631</v>
+        <v>0.9180024076963765</v>
       </c>
       <c r="C155">
-        <v>-0.2742668063194389</v>
+        <v>-0.02073202068518321</v>
       </c>
       <c r="D155">
-        <v>-0.5544222604862907</v>
+        <v>-0.208338463304346</v>
+      </c>
+      <c r="E155">
+        <v>33</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,13 +3485,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.3847863201925779</v>
+        <v>2.290134197447384</v>
       </c>
       <c r="C156">
-        <v>-0.8989586286905019</v>
+        <v>1.738944229696726</v>
       </c>
       <c r="D156">
-        <v>-1.176261929783982</v>
+        <v>-0.01907702457782601</v>
+      </c>
+      <c r="E156">
+        <v>33</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -3049,13 +3505,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.3591977204937873</v>
+        <v>1.974498310929244</v>
       </c>
       <c r="C157">
-        <v>-0.8079105438946294</v>
+        <v>1.644697919348499</v>
       </c>
       <c r="D157">
-        <v>-1.06659449705321</v>
+        <v>-0.05507733187977859</v>
+      </c>
+      <c r="E157">
+        <v>33</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -3066,13 +3525,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.3547089562225795</v>
+        <v>4.663677810979435</v>
       </c>
       <c r="C158">
-        <v>-1.699952238308888</v>
+        <v>3.173490112576562</v>
       </c>
       <c r="D158">
-        <v>-1.803483809452977</v>
+        <v>0.4268868986690389</v>
+      </c>
+      <c r="E158">
+        <v>33</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-1.409869894037823</v>
+        <v>0.4384584169063462</v>
       </c>
       <c r="C159">
-        <v>-0.09914566223068444</v>
+        <v>-0.4331960435635721</v>
       </c>
       <c r="D159">
-        <v>-0.6130235145540803</v>
+        <v>-0.4221092723885691</v>
+      </c>
+      <c r="E159">
+        <v>33</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-1.216332872021372</v>
+        <v>0.3967420840362834</v>
       </c>
       <c r="C160">
-        <v>-0.1102480282800665</v>
+        <v>-0.3158909022806081</v>
       </c>
       <c r="D160">
-        <v>-0.6191093833012202</v>
+        <v>-0.4301272808438641</v>
+      </c>
+      <c r="E160">
+        <v>33</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.4886152210550073</v>
+        <v>0.4342389025314199</v>
       </c>
       <c r="C161">
-        <v>-0.230667876429715</v>
+        <v>0.3552746344935298</v>
       </c>
       <c r="D161">
-        <v>-0.75710567043151</v>
+        <v>-0.4310349598975148</v>
+      </c>
+      <c r="E161">
+        <v>33</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.4660408835601572</v>
+        <v>0.5478623569516129</v>
       </c>
       <c r="C162">
-        <v>-0.2800611886638611</v>
+        <v>0.4928909675133442</v>
       </c>
       <c r="D162">
-        <v>-0.7683749155765296</v>
+        <v>-0.3930403332207859</v>
+      </c>
+      <c r="E162">
+        <v>33</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,13 +3625,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-0.3922893466677261</v>
+        <v>0.03021403833552527</v>
       </c>
       <c r="C163">
-        <v>-0.1473583313062622</v>
+        <v>0.4420146798367047</v>
       </c>
       <c r="D163">
-        <v>-0.5603092952600061</v>
+        <v>-0.4270463211479621</v>
+      </c>
+      <c r="E163">
+        <v>33</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.3727292713768163</v>
+        <v>0.5730968336940514</v>
       </c>
       <c r="C164">
-        <v>-0.3371930405704271</v>
+        <v>0.8114936562245604</v>
       </c>
       <c r="D164">
-        <v>-0.6925152182808169</v>
+        <v>-0.3150567604925518</v>
+      </c>
+      <c r="E164">
+        <v>33</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.5309455880411541</v>
+        <v>2.190184978253313</v>
       </c>
       <c r="C165">
-        <v>-0.9709178038515324</v>
+        <v>2.34451609031328</v>
       </c>
       <c r="D165">
-        <v>-0.730817942971532</v>
+        <v>0.2462049752916806</v>
+      </c>
+      <c r="E165">
+        <v>33</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C166">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D166">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E166">
+        <v>33</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.5744238067632</v>
+        <v>2.66892458490084</v>
       </c>
       <c r="C167">
-        <v>-0.9251363219073887</v>
+        <v>1.333601495642335</v>
       </c>
       <c r="D167">
-        <v>-1.448918002251198</v>
+        <v>-0.1010492360556129</v>
+      </c>
+      <c r="E167">
+        <v>33</v>
       </c>
       <c r="F167">
         <v>0</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C168">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D168">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E168">
+        <v>33</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.4555235948810686</v>
+        <v>2.378523175125138</v>
       </c>
       <c r="C169">
-        <v>-0.8912200890180821</v>
+        <v>1.557957874005324</v>
       </c>
       <c r="D169">
-        <v>-1.263390872224714</v>
+        <v>-0.05906597062933128</v>
+      </c>
+      <c r="E169">
+        <v>33</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-4.026607343561701</v>
+        <v>4.393330216005271</v>
       </c>
       <c r="C170">
-        <v>-1.292107327882398</v>
+        <v>1.312801026337471</v>
       </c>
       <c r="D170">
-        <v>-0.9157549500496904</v>
+        <v>0.7334154673531778</v>
+      </c>
+      <c r="E170">
+        <v>33</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-2.250289528425077</v>
+        <v>0.6649559031096142</v>
       </c>
       <c r="C171">
-        <v>-0.1027134674077751</v>
+        <v>-0.6805392119192878</v>
       </c>
       <c r="D171">
-        <v>-0.5078021697940949</v>
+        <v>-0.3054423255339117</v>
+      </c>
+      <c r="E171">
+        <v>33</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C172">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D172">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E172">
+        <v>33</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.3170633077080274</v>
+        <v>2.631004560707963</v>
       </c>
       <c r="C173">
-        <v>-1.047138565392941</v>
+        <v>2.151793228756169</v>
       </c>
       <c r="D173">
-        <v>-1.21006966521904</v>
+        <v>0.09490685545236066</v>
+      </c>
+      <c r="E173">
+        <v>33</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.2658861083104464</v>
+        <v>1.999732787671682</v>
       </c>
       <c r="C174">
-        <v>-0.8650423958011954</v>
+        <v>1.963300608059715</v>
       </c>
       <c r="D174">
-        <v>-0.9907347997574971</v>
+        <v>0.02290624084845561</v>
+      </c>
+      <c r="E174">
+        <v>33</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,16 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-1.022980564543687</v>
+        <v>0.7105334242057687</v>
       </c>
       <c r="C175">
-        <v>-0.2656347639970163</v>
+        <v>0.1731035393660224</v>
       </c>
       <c r="D175">
-        <v>-0.6568675949405631</v>
+        <v>-0.3213480729688689</v>
+      </c>
+      <c r="E175">
+        <v>33</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>-0.4690551457640976</v>
+        <v>0.9771216978899461</v>
       </c>
       <c r="C176">
-        <v>-0.4205025856938798</v>
+        <v>0.7247536108813856</v>
       </c>
       <c r="D176">
-        <v>-0.8893115934523208</v>
+        <v>-0.3190453992421045</v>
+      </c>
+      <c r="E176">
+        <v>33</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.2267659577286269</v>
+        <v>3.085498378388734</v>
       </c>
       <c r="C177">
-        <v>-1.244711814329525</v>
+        <v>2.702258560835427</v>
       </c>
       <c r="D177">
-        <v>-1.255146645799119</v>
+        <v>0.2468853621592763</v>
+      </c>
+      <c r="E177">
+        <v>33</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.05668854644891441</v>
+        <v>2.163825195576752</v>
       </c>
       <c r="C178">
-        <v>-1.028699411848474</v>
+        <v>2.738122318501962</v>
       </c>
       <c r="D178">
-        <v>-0.8502846503110911</v>
+        <v>0.2168680129816528</v>
+      </c>
+      <c r="E178">
+        <v>33</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.1374377043929156</v>
+        <v>4.474214308173488</v>
       </c>
       <c r="C179">
-        <v>-1.894563413045845</v>
+        <v>4.672257245784415</v>
       </c>
       <c r="D179">
-        <v>-1.314517890243641</v>
+        <v>0.7808044550082572</v>
+      </c>
+      <c r="E179">
+        <v>33</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,16 +3965,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.2147089089128654</v>
+        <v>1.368461014635402</v>
       </c>
       <c r="C180">
-        <v>-0.6829462262094502</v>
+        <v>1.774807987363261</v>
       </c>
       <c r="D180">
-        <v>-0.771399934295954</v>
+        <v>-0.04909437375544951</v>
+      </c>
+      <c r="E180">
+        <v>33</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3457,16 +3985,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.7242978955188393</v>
+        <v>1.876393638083827</v>
       </c>
       <c r="C181">
-        <v>-0.8155310681345825</v>
+        <v>1.85552164866665</v>
       </c>
       <c r="D181">
-        <v>-0.6930597313321893</v>
+        <v>0.1374257674166854</v>
+      </c>
+      <c r="E181">
+        <v>33</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3474,16 +4005,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.3757435335807567</v>
+        <v>1.002356174632384</v>
       </c>
       <c r="C182">
-        <v>-0.4776344376004458</v>
+        <v>1.043356299592602</v>
       </c>
       <c r="D182">
-        <v>-0.813451896156608</v>
+        <v>-0.2410618265138703</v>
+      </c>
+      <c r="E182">
+        <v>33</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3491,13 +4025,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.07175985746861635</v>
+        <v>4.310121900268418</v>
       </c>
       <c r="C183">
-        <v>-1.730906396998567</v>
+        <v>3.897435535342169</v>
       </c>
       <c r="D183">
-        <v>-1.454968039690047</v>
+        <v>0.58684268287506</v>
+      </c>
+      <c r="E183">
+        <v>33</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -3508,16 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-1.228020491759602</v>
+        <v>1.402764101710519</v>
       </c>
       <c r="C184">
-        <v>-0.3834448770650063</v>
+        <v>-0.1318189295357755</v>
       </c>
       <c r="D184">
-        <v>-1.03951140901998</v>
+        <v>-0.3677419775897186</v>
+      </c>
+      <c r="E184">
+        <v>34</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-1.761560524136023</v>
+        <v>4.196377102156372</v>
       </c>
       <c r="C185">
-        <v>-1.342624976866601</v>
+        <v>1.979406595319716</v>
       </c>
       <c r="D185">
-        <v>-1.633378338851252</v>
+        <v>0.2656342715451939</v>
+      </c>
+      <c r="E185">
+        <v>34</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.3497003239008648</v>
+        <v>5.625342621367117</v>
       </c>
       <c r="C186">
-        <v>-2.158008517605785</v>
+        <v>4.585933428816858</v>
       </c>
       <c r="D186">
-        <v>-1.625975066377861</v>
+        <v>0.9115060149541955</v>
+      </c>
+      <c r="E186">
+        <v>34</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.3953036088716664</v>
+        <v>0.4594733792738585</v>
       </c>
       <c r="C187">
-        <v>-0.2877997283362809</v>
+        <v>0.673877323204746</v>
       </c>
       <c r="D187">
-        <v>-0.6812459731357973</v>
+        <v>-0.3530513871692807</v>
+      </c>
+      <c r="E187">
+        <v>34</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -3576,16 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.6812669698295699</v>
+        <v>1.242288630923209</v>
       </c>
       <c r="C188">
-        <v>-0.3972869666766205</v>
+        <v>0.1817945438071799</v>
       </c>
       <c r="D188">
-        <v>-1.150698420774518</v>
+        <v>-0.4390122373966203</v>
+      </c>
+      <c r="E188">
+        <v>34</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.3712547693095488</v>
+        <v>3.691535674682576</v>
       </c>
       <c r="C189">
-        <v>-1.369676132014704</v>
+        <v>2.572148492820665</v>
       </c>
       <c r="D189">
-        <v>-1.550341208556375</v>
+        <v>0.2409024040349472</v>
+      </c>
+      <c r="E189">
+        <v>34</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.7900535976759342</v>
+        <v>3.413374534407667</v>
       </c>
       <c r="C190">
-        <v>-1.329798533140625</v>
+        <v>2.764602696766737</v>
       </c>
       <c r="D190">
-        <v>-1.075205166435318</v>
+        <v>0.4396198271563427</v>
+      </c>
+      <c r="E190">
+        <v>34</v>
       </c>
       <c r="F190">
         <v>0</v>
@@ -3627,16 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>-0.3019919966883255</v>
+        <v>0.484707856016297</v>
       </c>
       <c r="C191">
-        <v>-0.3449315802428469</v>
+        <v>0.9924800119159624</v>
       </c>
       <c r="D191">
-        <v>-0.6053862758400844</v>
+        <v>-0.2750678144410466</v>
+      </c>
+      <c r="E191">
+        <v>34</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C192">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D192">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E192">
+        <v>34</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.2568433216986252</v>
+        <v>0.7119547648566827</v>
       </c>
       <c r="C193">
-        <v>-0.4437182047111392</v>
+        <v>1.267712677955591</v>
       </c>
       <c r="D193">
-        <v>-0.6279247661301236</v>
+        <v>-0.1990785610875887</v>
+      </c>
+      <c r="E193">
+        <v>34</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.327580596387116</v>
+        <v>0.8003437425344372</v>
       </c>
       <c r="C194">
-        <v>-0.4359796650387194</v>
+        <v>1.086726322264189</v>
       </c>
       <c r="D194">
-        <v>-0.715053708570856</v>
+        <v>-0.239067507139094</v>
+      </c>
+      <c r="E194">
+        <v>34</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.3110347833001467</v>
+        <v>1.772485878831297</v>
       </c>
       <c r="C195">
-        <v>-0.766255771332903</v>
+        <v>1.688067942020087</v>
       </c>
       <c r="D195">
-        <v>-0.9681963094674579</v>
+        <v>-0.05308301250500219</v>
+      </c>
+      <c r="E195">
+        <v>34</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -3712,13 +4285,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.3622119826977277</v>
+        <v>2.403757651867577</v>
       </c>
       <c r="C196">
-        <v>-0.948351940924648</v>
+        <v>1.87656056271654</v>
       </c>
       <c r="D196">
-        <v>-1.187531174929001</v>
+        <v>0.01891760209890292</v>
+      </c>
+      <c r="E196">
+        <v>34</v>
       </c>
       <c r="F196">
         <v>0</v>
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.9328082979295821</v>
+        <v>7.44332703407582</v>
       </c>
       <c r="C197">
-        <v>-2.711645517466895</v>
+        <v>5.818414673026906</v>
       </c>
       <c r="D197">
-        <v>-2.069224150284394</v>
+        <v>1.241008574529197</v>
+      </c>
+      <c r="E197">
+        <v>34</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.4464808082692475</v>
+        <v>1.090745152310139</v>
       </c>
       <c r="C198">
-        <v>-0.469895897928026</v>
+        <v>0.8623699439011999</v>
       </c>
       <c r="D198">
-        <v>-0.9005808385973404</v>
+        <v>-0.2810507725653756</v>
+      </c>
+      <c r="E198">
+        <v>34</v>
       </c>
       <c r="F198">
         <v>0</v>
@@ -3763,16 +4345,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.4664332473690038</v>
+        <v>2.176279533963292</v>
       </c>
       <c r="C199">
-        <v>-0.9746185925346598</v>
+        <v>2.383617804074268</v>
       </c>
       <c r="D199">
-        <v>-0.7328465658872454</v>
+        <v>0.2435323058065822</v>
+      </c>
+      <c r="E199">
+        <v>34</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3780,13 +4365,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.8885931865207649</v>
+        <v>2.559841929721197</v>
       </c>
       <c r="C200">
-        <v>-0.9356785214234952</v>
+        <v>1.575294998982318</v>
       </c>
       <c r="D200">
-        <v>-1.07698478093732</v>
+        <v>0.08934386101577352</v>
+      </c>
+      <c r="E200">
+        <v>34</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1840608814498833</v>
+        <v>7.819900058002398</v>
       </c>
       <c r="C201">
-        <v>-3.025833128958415</v>
+        <v>6.708144748420148</v>
       </c>
       <c r="D201">
-        <v>-2.194882370809238</v>
+        <v>1.412752872889214</v>
+      </c>
+      <c r="E201">
+        <v>34</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.7774807046958159</v>
+        <v>3.173685912255157</v>
       </c>
       <c r="C202">
-        <v>-1.234323140651973</v>
+        <v>2.524355774618519</v>
       </c>
       <c r="D202">
-        <v>-1.054481759806706</v>
+        <v>0.361239237947797</v>
+      </c>
+      <c r="E202">
+        <v>34</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,13 +4425,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.5202323451616786</v>
+        <v>1.608393470926226</v>
       </c>
       <c r="C203">
-        <v>-0.6025987552856249</v>
+        <v>0.9132462315778395</v>
       </c>
       <c r="D203">
-        <v>-1.108646458913864</v>
+        <v>-0.2470447846381995</v>
+      </c>
+      <c r="E203">
+        <v>34</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -3848,16 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.327580596387116</v>
+        <v>0.8003437425344372</v>
       </c>
       <c r="C204">
-        <v>-0.4359796650387194</v>
+        <v>1.086726322264189</v>
       </c>
       <c r="D204">
-        <v>-0.715053708570856</v>
+        <v>-0.239067507139094</v>
+      </c>
+      <c r="E204">
+        <v>34</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3865,16 +4465,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.07926288394376457</v>
+        <v>2.05020174115656</v>
       </c>
       <c r="C205">
-        <v>-0.9793060996143272</v>
+        <v>2.600505985482148</v>
       </c>
       <c r="D205">
-        <v>-0.8390154051660715</v>
+        <v>0.1788733863049239</v>
+      </c>
+      <c r="E205">
+        <v>34</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.1213972967295245</v>
+        <v>1.39369549137784</v>
       </c>
       <c r="C206">
-        <v>-0.7400780781160162</v>
+        <v>2.093410676074478</v>
       </c>
       <c r="D206">
-        <v>-0.6955402370002411</v>
+        <v>0.02888919897278464</v>
+      </c>
+      <c r="E206">
+        <v>34</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C207">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D207">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E207">
+        <v>34</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.3742690315134892</v>
+        <v>4.120795015620909</v>
       </c>
       <c r="C208">
-        <v>-1.510117529044723</v>
+        <v>2.804011136188706</v>
       </c>
       <c r="D208">
-        <v>-1.671277886432166</v>
+        <v>0.3148973380136286</v>
+      </c>
+      <c r="E208">
+        <v>34</v>
       </c>
       <c r="F208">
         <v>0</v>
@@ -3933,16 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.4434665460653071</v>
+        <v>0.6614858113718057</v>
       </c>
       <c r="C209">
-        <v>-0.3294545008980073</v>
+        <v>0.6305073005331586</v>
       </c>
       <c r="D209">
-        <v>-0.7796441607215492</v>
+        <v>-0.355045706544057</v>
+      </c>
+      <c r="E209">
+        <v>34</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.4780979323759187</v>
+        <v>2.264899720704946</v>
       </c>
       <c r="C210">
-        <v>-0.8418267767839359</v>
+        <v>1.42034154098551</v>
       </c>
       <c r="D210">
-        <v>-1.252121627079694</v>
+        <v>-0.0970605973060602</v>
+      </c>
+      <c r="E210">
+        <v>34</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-0.1500001586322554</v>
+        <v>2.138590718834314</v>
       </c>
       <c r="C211">
-        <v>-0.9715675599419075</v>
+        <v>2.419519629790746</v>
       </c>
       <c r="D211">
-        <v>-0.9261443476068039</v>
+        <v>0.1388844402534186</v>
+      </c>
+      <c r="E211">
+        <v>34</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-0.3110347833001467</v>
+        <v>1.772485878831297</v>
       </c>
       <c r="C212">
-        <v>-0.766255771332903</v>
+        <v>1.688067942020087</v>
       </c>
       <c r="D212">
-        <v>-0.9681963094674579</v>
+        <v>-0.05308301250500219</v>
+      </c>
+      <c r="E212">
+        <v>34</v>
       </c>
       <c r="F212">
         <v>0</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.03866823129467761</v>
+        <v>6.254406172862137</v>
       </c>
       <c r="C213">
-        <v>-2.391458609586934</v>
+        <v>5.100118774853962</v>
       </c>
       <c r="D213">
-        <v>-1.961253241483251</v>
+        <v>0.9588116721432435</v>
+      </c>
+      <c r="E213">
+        <v>34</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.3230918321159082</v>
+        <v>3.489523242584629</v>
       </c>
       <c r="C214">
-        <v>-1.328021359452978</v>
+        <v>2.615518515492252</v>
       </c>
       <c r="D214">
-        <v>-1.451943020970623</v>
+        <v>0.2428967234097236</v>
+      </c>
+      <c r="E214">
+        <v>35</v>
       </c>
       <c r="F214">
         <v>0</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.407360657687428</v>
+        <v>2.176510743027191</v>
       </c>
       <c r="C215">
-        <v>-0.8495653164563557</v>
+        <v>1.601327896676911</v>
       </c>
       <c r="D215">
-        <v>-1.164992684638962</v>
+        <v>-0.05707165125455493</v>
+      </c>
+      <c r="E215">
+        <v>35</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.9970657851214165</v>
+        <v>3.803730270018768</v>
       </c>
       <c r="C216">
-        <v>-1.479136179000296</v>
+        <v>3.663746443008642</v>
       </c>
       <c r="D216">
-        <v>-1.086679222554711</v>
+        <v>0.5614905585333198</v>
+      </c>
+      <c r="E216">
+        <v>35</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-2.022090869647574</v>
+        <v>5.668471892539031</v>
       </c>
       <c r="C217">
-        <v>-1.706423813514653</v>
+        <v>3.186202767303123</v>
       </c>
       <c r="D217">
-        <v>-2.119097557381418</v>
+        <v>0.3264012292762697</v>
+      </c>
+      <c r="E217">
+        <v>35</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.5982874763784791</v>
+        <v>2.277842090442119</v>
       </c>
       <c r="C218">
-        <v>-0.9633740425308561</v>
+        <v>2.165587719556667</v>
       </c>
       <c r="D218">
-        <v>-0.8180536550394073</v>
+        <v>0.2060753624251702</v>
+      </c>
+      <c r="E218">
+        <v>35</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.407360657687428</v>
+        <v>2.176510743027191</v>
       </c>
       <c r="C219">
-        <v>-0.8495653164563557</v>
+        <v>1.601327896676911</v>
       </c>
       <c r="D219">
-        <v>-1.164992684638962</v>
+        <v>-0.05707165125455493</v>
+      </c>
+      <c r="E219">
+        <v>35</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.262871846106506</v>
+        <v>1.570473446733349</v>
       </c>
       <c r="C220">
-        <v>-0.7246009987711766</v>
+        <v>1.731437964691674</v>
       </c>
       <c r="D220">
-        <v>-0.8697981218817059</v>
+        <v>-0.05108869313022585</v>
+      </c>
+      <c r="E220">
+        <v>35</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>-0.5249553630852135</v>
+        <v>3.875538057096114</v>
       </c>
       <c r="C221">
-        <v>-1.589178314425621</v>
+        <v>3.683062355992143</v>
       </c>
       <c r="D221">
-        <v>-1.046984920771111</v>
+        <v>0.6662059030313684</v>
+      </c>
+      <c r="E221">
+        <v>35</v>
       </c>
       <c r="F221">
         <v>0</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>-0.8563985286584084</v>
+        <v>2.598249985264708</v>
       </c>
       <c r="C222">
-        <v>-0.9893043629986773</v>
+        <v>1.856853958867335</v>
       </c>
       <c r="D222">
-        <v>-0.9992032303530365</v>
+        <v>0.1698594364141007</v>
+      </c>
+      <c r="E222">
+        <v>35</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>-0.4525093326771282</v>
+        <v>1.949263834186805</v>
       </c>
       <c r="C223">
-        <v>-0.7507786919880634</v>
+        <v>1.326095230637283</v>
       </c>
       <c r="D223">
-        <v>-1.142454194348923</v>
+        <v>-0.1330609046080127</v>
+      </c>
+      <c r="E223">
+        <v>35</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>-1.537890647591992</v>
+        <v>14.28766289448157</v>
       </c>
       <c r="C224">
-        <v>-5.41957533319022</v>
+        <v>9.899445644372408</v>
       </c>
       <c r="D224">
-        <v>-3.514077587427313</v>
+        <v>3.197234407434498</v>
+      </c>
+      <c r="E224">
+        <v>35</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.3200775699119678</v>
+        <v>3.060263901646296</v>
       </c>
       <c r="C225">
-        <v>-1.187579962422959</v>
+        <v>2.383655872124211</v>
       </c>
       <c r="D225">
-        <v>-1.331006343094832</v>
+        <v>0.1689017894310422</v>
+      </c>
+      <c r="E225">
+        <v>35</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,13 +4885,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-1.477276686209334</v>
+        <v>6.753401872062567</v>
       </c>
       <c r="C226">
-        <v>-2.319093424895156</v>
+        <v>3.96971791953987</v>
       </c>
       <c r="D226">
-        <v>-2.000728027011617</v>
+        <v>0.9811914059632786</v>
+      </c>
+      <c r="E226">
+        <v>35</v>
       </c>
       <c r="F226">
         <v>0</v>
@@ -4239,16 +4905,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-1.525609428629188</v>
+        <v>2.487964573423634</v>
       </c>
       <c r="C227">
-        <v>-0.7474794330565302</v>
+        <v>0.5411671867566765</v>
       </c>
       <c r="D227">
-        <v>-1.203981957363732</v>
+        <v>-0.0868938924267717</v>
+      </c>
+      <c r="E227">
+        <v>35</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.4404522838613667</v>
+        <v>0.2322264704334726</v>
       </c>
       <c r="C228">
-        <v>-0.1890131038679886</v>
+        <v>0.3986446571651172</v>
       </c>
       <c r="D228">
-        <v>-0.6587074828457581</v>
+        <v>-0.4290406405227385</v>
+      </c>
+      <c r="E228">
+        <v>35</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>-0.333620360456618</v>
+        <v>3.715807076872168</v>
       </c>
       <c r="C229">
-        <v>-1.552056038351318</v>
+        <v>3.675099073864026</v>
       </c>
       <c r="D229">
-        <v>-1.042442162136088</v>
+        <v>0.6193492670093134</v>
+      </c>
+      <c r="E229">
+        <v>35</v>
       </c>
       <c r="F229">
         <v>0</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.3727292713768163</v>
+        <v>0.5730968336940514</v>
       </c>
       <c r="C230">
-        <v>-0.3371930405704271</v>
+        <v>0.8114936562245604</v>
       </c>
       <c r="D230">
-        <v>-0.6925152182808169</v>
+        <v>-0.3150567604925518</v>
+      </c>
+      <c r="E230">
+        <v>35</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -4307,16 +4985,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.3305948585910564</v>
+        <v>1.22960308347277</v>
       </c>
       <c r="C231">
-        <v>-0.5764210620687381</v>
+        <v>1.318588965632231</v>
       </c>
       <c r="D231">
-        <v>-0.8359903864466471</v>
+        <v>-0.1650725731604126</v>
+      </c>
+      <c r="E231">
+        <v>35</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>-0.8074350437183768</v>
+        <v>0.7094207433460623</v>
       </c>
       <c r="C232">
-        <v>-0.32977863656635</v>
+        <v>0.565793685729637</v>
       </c>
       <c r="D232">
-        <v>-0.5848516042219915</v>
+        <v>-0.2484285055808209</v>
+      </c>
+      <c r="E232">
+        <v>35</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>-0.300517494621058</v>
+        <v>3.603146697004822</v>
       </c>
       <c r="C233">
-        <v>-1.377414671687124</v>
+        <v>2.753134848512067</v>
       </c>
       <c r="D233">
-        <v>-1.463212266115642</v>
+        <v>0.2808913500864525</v>
+      </c>
+      <c r="E233">
+        <v>35</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,16 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.8605678583737193</v>
+        <v>0.6023840783264056</v>
       </c>
       <c r="C234">
-        <v>-0.2786323191665119</v>
+        <v>0.409655488296723</v>
       </c>
       <c r="D234">
-        <v>-0.5726214324326866</v>
+        <v>-0.2851571309225033</v>
+      </c>
+      <c r="E234">
+        <v>35</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4375,16 +5065,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.327580596387116</v>
+        <v>0.8003437425344372</v>
       </c>
       <c r="C235">
-        <v>-0.4359796650387194</v>
+        <v>1.086726322264189</v>
       </c>
       <c r="D235">
-        <v>-0.715053708570856</v>
+        <v>-0.239067507139094</v>
+      </c>
+      <c r="E235">
+        <v>35</v>
       </c>
       <c r="F235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>-0.0115398714592142</v>
+        <v>2.391072104417138</v>
       </c>
       <c r="C236">
-        <v>-1.127486036316766</v>
+        <v>3.013354984541591</v>
       </c>
       <c r="D236">
-        <v>-0.8728231406011303</v>
+        <v>0.2928572663351106</v>
+      </c>
+      <c r="E236">
+        <v>35</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.5076706918431815</v>
+        <v>3.42564950123478</v>
       </c>
       <c r="C237">
-        <v>-1.342316942049534</v>
+        <v>2.797646774293375</v>
       </c>
       <c r="D237">
-        <v>-1.173438150098902</v>
+        <v>0.3850015323442992</v>
+      </c>
+      <c r="E237">
+        <v>35</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>-0.1891203092140749</v>
+        <v>1.052825128117262</v>
       </c>
       <c r="C238">
-        <v>-0.5918981414135777</v>
+        <v>1.680561677015034</v>
       </c>
       <c r="D238">
-        <v>-0.6617325015651824</v>
+        <v>-0.08509468105740203</v>
+      </c>
+      <c r="E238">
+        <v>35</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.09440712421641612</v>
+        <v>6.518229215971793</v>
       </c>
       <c r="C239">
-        <v>-2.557440139217313</v>
+        <v>5.732139761540728</v>
       </c>
       <c r="D239">
-        <v>-1.71847795933516</v>
+        <v>1.212368358437913</v>
+      </c>
+      <c r="E239">
+        <v>35</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,16 +5165,19 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>-0.4208922085704569</v>
+        <v>0.7751092657919986</v>
       </c>
       <c r="C240">
-        <v>-0.3788478131321535</v>
+        <v>0.768123633552973</v>
       </c>
       <c r="D240">
-        <v>-0.7909134058665688</v>
+        <v>-0.3170510798673282</v>
+      </c>
+      <c r="E240">
+        <v>35</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -4477,16 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-0.262871846106506</v>
+        <v>1.570473446733349</v>
       </c>
       <c r="C241">
-        <v>-0.7246009987711766</v>
+        <v>1.731437964691674</v>
       </c>
       <c r="D241">
-        <v>-0.8697981218817059</v>
+        <v>-0.05108869313022585</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-0.4178779463665165</v>
+        <v>0.3458499248536655</v>
       </c>
       <c r="C242">
-        <v>-0.2384064161021348</v>
+        <v>0.5362609901849317</v>
       </c>
       <c r="D242">
-        <v>-0.6699767279907777</v>
+        <v>-0.3910460138460096</v>
+      </c>
+      <c r="E242">
+        <v>35</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -4511,16 +5225,19 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>-1.016189791841355</v>
+        <v>0.7090696932278718</v>
       </c>
       <c r="C243">
-        <v>-0.2660243207005034</v>
+        <v>0.1772195092356</v>
       </c>
       <c r="D243">
-        <v>-0.6570811341948488</v>
+        <v>-0.3216294065988792</v>
+      </c>
+      <c r="E243">
+        <v>35</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -4528,16 +5245,19 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.3501549338819662</v>
+        <v>0.6867202881142443</v>
       </c>
       <c r="C244">
-        <v>-0.3865863528045733</v>
+        <v>0.9491099892443748</v>
       </c>
       <c r="D244">
-        <v>-0.7037844634258364</v>
+        <v>-0.2770621338158229</v>
+      </c>
+      <c r="E244">
+        <v>35</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -4545,16 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.01103446603563596</v>
+        <v>2.504695558837331</v>
       </c>
       <c r="C245">
-        <v>-1.176879348550912</v>
+        <v>3.150971317561405</v>
       </c>
       <c r="D245">
-        <v>-0.8840923857461499</v>
+        <v>0.3308518930118395</v>
+      </c>
+      <c r="E245">
+        <v>35</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>-1.033105034005856</v>
+        <v>0.447942903010109</v>
       </c>
       <c r="C246">
-        <v>-0.224316953741455</v>
+        <v>0.3192564902070355</v>
       </c>
       <c r="D246">
-        <v>-0.4672832190826519</v>
+        <v>-0.2740194685723906</v>
+      </c>
+      <c r="E246">
+        <v>35</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>-0.4013321332795472</v>
+        <v>1.317992061150525</v>
       </c>
       <c r="C247">
-        <v>-0.5686825223963183</v>
+        <v>1.137602609940829</v>
       </c>
       <c r="D247">
-        <v>-0.9231193288873796</v>
+        <v>-0.2050615192119178</v>
+      </c>
+      <c r="E247">
+        <v>35</v>
       </c>
       <c r="F247">
         <v>0</v>
@@ -4596,16 +5325,19 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>-0.3501549338819662</v>
+        <v>0.6867202881142443</v>
       </c>
       <c r="C248">
-        <v>-0.3865863528045733</v>
+        <v>0.9491099892443748</v>
       </c>
       <c r="D248">
-        <v>-0.7037844634258364</v>
+        <v>-0.2770621338158229</v>
+      </c>
+      <c r="E248">
+        <v>35</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>-1.361446696924648</v>
+        <v>5.422764906428856</v>
       </c>
       <c r="C249">
-        <v>-1.808947378093274</v>
+        <v>3.330465803515446</v>
       </c>
       <c r="D249">
-        <v>-1.87983033543531</v>
+        <v>0.5366532270002567</v>
+      </c>
+      <c r="E249">
+        <v>36</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -4630,13 +5365,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>-1.094421966413377</v>
+        <v>6.078432238575126</v>
       </c>
       <c r="C250">
-        <v>-2.100564503078984</v>
+        <v>3.582102054919969</v>
       </c>
       <c r="D250">
-        <v>-1.959970166849369</v>
+        <v>0.7706809175888784</v>
+      </c>
+      <c r="E250">
+        <v>36</v>
       </c>
       <c r="F250">
         <v>0</v>
@@ -4647,13 +5385,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>-0.4164034442992491</v>
+        <v>3.464288765842191</v>
       </c>
       <c r="C251">
-        <v>-1.270889507546412</v>
+        <v>2.296915826781035</v>
       </c>
       <c r="D251">
-        <v>-1.527802718266336</v>
+        <v>0.1649131506814894</v>
+      </c>
+      <c r="E251">
+        <v>36</v>
       </c>
       <c r="F251">
         <v>0</v>
@@ -4664,16 +5405,19 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>-0.2568433216986252</v>
+        <v>0.7119547648566827</v>
       </c>
       <c r="C252">
-        <v>-0.4437182047111392</v>
+        <v>1.267712677955591</v>
       </c>
       <c r="D252">
-        <v>-0.6279247661301236</v>
+        <v>-0.1990785610875887</v>
+      </c>
+      <c r="E252">
+        <v>36</v>
       </c>
       <c r="F252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>-0.4464808082692475</v>
+        <v>1.090745152310139</v>
       </c>
       <c r="C253">
-        <v>-0.469895897928026</v>
+        <v>0.8623699439011999</v>
       </c>
       <c r="D253">
-        <v>-0.9005808385973404</v>
+        <v>-0.2810507725653756</v>
+      </c>
+      <c r="E253">
+        <v>36</v>
       </c>
       <c r="F253">
         <v>0</v>
@@ -4698,13 +5445,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>-0.3110347833001467</v>
+        <v>1.772485878831297</v>
       </c>
       <c r="C254">
-        <v>-0.766255771332903</v>
+        <v>1.688067942020087</v>
       </c>
       <c r="D254">
-        <v>-0.9681963094674579</v>
+        <v>-0.05308301250500219</v>
+      </c>
+      <c r="E254">
+        <v>36</v>
       </c>
       <c r="F254">
         <v>0</v>
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.06875683492629725</v>
+        <v>5.937807211791148</v>
       </c>
       <c r="C255">
-        <v>-2.425658579221109</v>
+        <v>5.790220356837882</v>
       </c>
       <c r="D255">
-        <v>-1.419546459627905</v>
+        <v>1.223274655087423</v>
+      </c>
+      <c r="E255">
+        <v>36</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -4732,16 +5485,19 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-2.00677999062935</v>
+        <v>3.780528931058206</v>
       </c>
       <c r="C256">
-        <v>-1.355020284024619</v>
+        <v>4.222717740779967</v>
       </c>
       <c r="D256">
-        <v>-0.9776746848486275</v>
+        <v>0.49025454373132</v>
+      </c>
+      <c r="E256">
+        <v>36</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4749,16 +5505,19 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>-0.6556783701307795</v>
+        <v>0.9266527444050688</v>
       </c>
       <c r="C257">
-        <v>-0.3062388818807479</v>
+        <v>0.08754823345895296</v>
       </c>
       <c r="D257">
-        <v>-1.041030988043746</v>
+        <v>-0.4750125446985728</v>
+      </c>
+      <c r="E257">
+        <v>36</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>-0.6625186819466725</v>
+        <v>5.528932888563497</v>
       </c>
       <c r="C258">
-        <v>-2.040186209063947</v>
+        <v>4.010351280868075</v>
       </c>
       <c r="D258">
-        <v>-1.684372880154272</v>
+        <v>0.8036864908195326</v>
+      </c>
+      <c r="E258">
+        <v>36</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -4783,16 +5545,19 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>-0.4660408835601572</v>
+        <v>0.5478623569516129</v>
       </c>
       <c r="C259">
-        <v>-0.2800611886638611</v>
+        <v>0.4928909675133442</v>
       </c>
       <c r="D259">
-        <v>-0.7683749155765296</v>
+        <v>-0.3930403332207859</v>
+      </c>
+      <c r="E259">
+        <v>36</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4800,16 +5565,19 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>-4.081247345427498</v>
+        <v>7.863516301134203</v>
       </c>
       <c r="C260">
-        <v>-2.430531320981383</v>
+        <v>7.889838002023528</v>
       </c>
       <c r="D260">
-        <v>-1.856499135646763</v>
+        <v>1.136026070755393</v>
+      </c>
+      <c r="E260">
+        <v>36</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4817,13 +5585,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>-0.4488670867877956</v>
+        <v>4.524725651985348</v>
       </c>
       <c r="C261">
-        <v>-1.830354119441367</v>
+        <v>4.210737514747701</v>
       </c>
       <c r="D261">
-        <v>-1.191527785208369</v>
+        <v>0.8147834222134559</v>
+      </c>
+      <c r="E261">
+        <v>36</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -4834,13 +5605,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>-0.1620572074480169</v>
+        <v>3.855628082587647</v>
       </c>
       <c r="C262">
-        <v>-1.533333148061983</v>
+        <v>3.346970203262912</v>
       </c>
       <c r="D262">
-        <v>-1.409891059109968</v>
+        <v>0.4348641761681444</v>
+      </c>
+      <c r="E262">
+        <v>36</v>
       </c>
       <c r="F262">
         <v>0</v>
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>-0.485600958851067</v>
+        <v>0.004979561593086768</v>
       </c>
       <c r="C263">
-        <v>-0.09022647939969622</v>
+        <v>0.1234119911254884</v>
       </c>
       <c r="D263">
-        <v>-0.6361689925557189</v>
+        <v>-0.5050298938761962</v>
+      </c>
+      <c r="E263">
+        <v>36</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>-0.3050062588922659</v>
+        <v>0.9139671969546302</v>
       </c>
       <c r="C264">
-        <v>-0.4853729772728656</v>
+        <v>1.224342655284004</v>
       </c>
       <c r="D264">
-        <v>-0.7263229537158756</v>
+        <v>-0.2010728804623651</v>
+      </c>
+      <c r="E264">
+        <v>36</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,16 +5665,19 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>-1.981815674121895</v>
+        <v>5.559326822351467</v>
       </c>
       <c r="C265">
-        <v>-1.816964618624052</v>
+        <v>2.255115846306107</v>
       </c>
       <c r="D265">
-        <v>-2.085099491307811</v>
+        <v>0.5361140024838483</v>
+      </c>
+      <c r="E265">
+        <v>36</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4902,16 +5685,19 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>-0.5111895585498575</v>
+        <v>0.320615448111227</v>
       </c>
       <c r="C266">
-        <v>-0.1812745641955688</v>
+        <v>0.2176583014737153</v>
       </c>
       <c r="D266">
-        <v>-0.7458364252864904</v>
+        <v>-0.4690295865742438</v>
+      </c>
+      <c r="E266">
+        <v>36</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4919,16 +5705,19 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>-1.140945154427076</v>
+        <v>-0.07591138963575689</v>
       </c>
       <c r="C267">
-        <v>-0.0294180073319577</v>
+        <v>-0.1037300944853301</v>
       </c>
       <c r="D267">
-        <v>-0.3323012857561281</v>
+        <v>-0.3823516920376663</v>
+      </c>
+      <c r="E267">
+        <v>36</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4936,13 +5725,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>-2.566997610960607</v>
+        <v>20.61143554957901</v>
       </c>
       <c r="C268">
-        <v>-7.196022151145512</v>
+        <v>17.61439681208932</v>
       </c>
       <c r="D268">
-        <v>-4.690131657779808</v>
+        <v>4.055288761125381</v>
+      </c>
+      <c r="E268">
+        <v>36</v>
       </c>
       <c r="F268">
         <v>0</v>
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>-0.1666112297886301</v>
+        <v>7.832585605452838</v>
       </c>
       <c r="C269">
-        <v>-2.846699033566297</v>
+        <v>5.571350326595097</v>
       </c>
       <c r="D269">
-        <v>-2.509590405137109</v>
+        <v>1.138813208653006</v>
+      </c>
+      <c r="E269">
+        <v>36</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -4970,13 +5765,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>-0.8195420870557728</v>
+        <v>3.830787046290382</v>
       </c>
       <c r="C270">
-        <v>-1.361482614603653</v>
+        <v>2.318216582586586</v>
       </c>
       <c r="D270">
-        <v>-1.442250515988978</v>
+        <v>0.3080933262066988</v>
+      </c>
+      <c r="E270">
+        <v>36</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -4987,13 +5785,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>-0.3471406716780258</v>
+        <v>0.2574609471759112</v>
       </c>
       <c r="C271">
-        <v>-0.2461449557745545</v>
+        <v>0.7172473458763334</v>
       </c>
       <c r="D271">
-        <v>-0.5828477855500452</v>
+        <v>-0.3510570677945043</v>
+      </c>
+      <c r="E271">
+        <v>36</v>
       </c>
       <c r="F271">
         <v>1</v>
@@ -5004,13 +5805,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>-0.4148636841625762</v>
+        <v>-0.08340941608466762</v>
       </c>
       <c r="C272">
-        <v>-0.09796501907211602</v>
+        <v>0.3043983468168903</v>
       </c>
       <c r="D272">
-        <v>-0.5490400501149865</v>
+        <v>-0.465040947824691</v>
+      </c>
+      <c r="E272">
+        <v>36</v>
       </c>
       <c r="F272">
         <v>1</v>
@@ -5021,13 +5825,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.006480443695022653</v>
+        <v>6.481653081702522</v>
       </c>
       <c r="C273">
-        <v>-2.490245234055227</v>
+        <v>5.375351440893592</v>
       </c>
       <c r="D273">
-        <v>-1.98379173177329</v>
+        <v>1.034800925496701</v>
+      </c>
+      <c r="E273">
+        <v>36</v>
       </c>
       <c r="F273">
         <v>0</v>
